--- a/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
+++ b/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
@@ -133,11 +133,36 @@
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Термонаклейка картина Поцелуй Густава Климта_1.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Термонаклейка картина Поцелуй Густава Климта_2.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Термонаклейка картина Поцелуй Густава Климта_3.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Термонаклейка картина Поцелуй Густава Климта_4.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Термонаклейка картина Поцелуй Густава Климта_5.jpg</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/images/А4/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_1.jpg</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -274,7 +299,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -379,8 +404,8 @@
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,7 +489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>

--- a/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
+++ b/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
@@ -133,36 +133,7 @@
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/images/А4/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_1.jpg</t>
-    </r>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка Девушка волосы облако Тест2_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка Девушка волосы облако Тест2_2.jpg;</t>
   </si>
 </sst>
 </file>
@@ -265,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,10 +267,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -402,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,8 +504,9 @@
       <c r="R2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>27</v>
+      <c r="S2" s="0" t="str">
+        <f aca="false">SUBSTITUTE(S3," ","%20")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_2.jpg;</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -558,6 +526,17 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="G2 E2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
+++ b/создание карточки XLS/WB_создание карточки XLS_test2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Номер карточки</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка Девушка волосы облако Тест2_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка Девушка волосы облако Тест2_2.jpg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_2.jpg;</t>
   </si>
 </sst>
 </file>
@@ -371,8 +374,8 @@
   </sheetPr>
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U18" activeCellId="0" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,7 +397,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,9 +535,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
